--- a/data/DataBase/Tao_San_Pham.xlsx
+++ b/data/DataBase/Tao_San_Pham.xlsx
@@ -560,16 +560,16 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">

--- a/data/DataBase/Tao_San_Pham.xlsx
+++ b/data/DataBase/Tao_San_Pham.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="8520"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dụng cụ học sinh" sheetId="1" r:id="rId1"/>
-    <sheet name="Văn phòng phẩm" sheetId="2" r:id="rId2"/>
-    <sheet name="Thiết bị trường học" sheetId="3" r:id="rId3"/>
-    <sheet name="Sách giáo khoa" sheetId="4" r:id="rId4"/>
-    <sheet name="Sách tham khảo" sheetId="5" r:id="rId5"/>
+    <sheet name="Giấy" sheetId="6" r:id="rId2"/>
+    <sheet name="Văn phòng phẩm" sheetId="2" r:id="rId3"/>
+    <sheet name="Thiết bị trường học" sheetId="3" r:id="rId4"/>
+    <sheet name="Sách giáo khoa" sheetId="4" r:id="rId5"/>
+    <sheet name="Sách tham khảo" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="26">
   <si>
     <t>stt</t>
   </si>
@@ -559,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,6 +766,208 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="7">
+        <v>11000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -837,7 +1040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -908,7 +1111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -920,12 +1123,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
